--- a/cms/language/任务翻译需求.xlsx
+++ b/cms/language/任务翻译需求.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/资源提交目录/cms/language/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30285" yWindow="1230" windowWidth="28095" windowHeight="9015" activeTab="1"/>
+    <workbookView xWindow="7040" yWindow="560" windowWidth="28100" windowHeight="19760"/>
   </bookViews>
   <sheets>
-    <sheet name="任务内容" sheetId="1" r:id="rId1"/>
-    <sheet name="目录" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="目录" sheetId="2" r:id="rId1"/>
+    <sheet name="剧情任务" sheetId="1" r:id="rId2"/>
+    <sheet name="日常任务" sheetId="3" r:id="rId3"/>
+    <sheet name="成就任务" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -21,10 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="240">
   <si>
     <t>英文翻译</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>（冰雪女王 Chione）</t>
@@ -34,33 +40,33 @@
   </si>
   <si>
     <t>任务目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>任务标题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>目录</t>
     <rPh sb="0" eb="1">
       <t>mu'lu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改记录</t>
@@ -70,24 +76,14 @@
     <rPh sb="2" eb="3">
       <t>ji'lu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务内容</t>
-    <rPh sb="0" eb="1">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>nei'rong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
       <t>r'q</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改内容</t>
@@ -97,7 +93,7 @@
     <rPh sb="2" eb="3">
       <t>nei'rong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改人</t>
@@ -107,11 +103,11 @@
     <rPh sb="2" eb="3">
       <t>ren</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2016年01月11日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>创建文档，添加第一批任务内容翻译</t>
@@ -139,11 +135,11 @@
     <rPh sb="14" eb="15">
       <t>fan'yi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>kathy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>zhuxian10001</t>
@@ -684,7 +680,7 @@
   </si>
   <si>
     <t>richang1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>richang2</t>
@@ -703,7 +699,7 @@
   </si>
   <si>
     <t>rimubiao1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>rimubiao2</t>
@@ -722,66 +718,173 @@
   </si>
   <si>
     <t>每日挑战副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每日剧情副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每日技能升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每日装备升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每日金币购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每日商店刷新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>剧情副本10次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>挑战副本3次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技能升级3次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>装备升级1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>购买金币1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>刷新商店1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>李</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>添加日常，部分内容调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年01月13日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily Campaign Stages</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily Heroic Stages</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily Ability Upgrade</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily Equipment Upgrade</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily Coin Purchase</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily Store Refresh</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete 10 Campaign Stages</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete 3 Heroic Stages</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level up abilities 3 times</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade equipment once</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Coins once</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh the Store once</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情任务</t>
+    <rPh sb="0" eb="1">
+      <t>ju'qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常任务</t>
+    <rPh sb="0" eb="1">
+      <t>ri'chang</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就任务</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'jiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年01月14日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整格式
+Gabe翻译：日常任务</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fan'yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ri'chang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>rne'wu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,6 +892,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -857,6 +974,11 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -894,43 +1016,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1232,25 +1372,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="B3:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="2" max="2" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="23" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="B14" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" location="目录!A1" display="修改记录"/>
+    <hyperlink ref="B5" location="任务内容!A1" display="任务内容"/>
+    <hyperlink ref="B6" location="日常任务!A1" display="日常任务"/>
+    <hyperlink ref="B7" location="成就任务!A1" display="成就任务"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="18" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="4"/>
+    <col min="5" max="5" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1274,1002 +1597,1070 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>112</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="F5" t="s">
-        <v>118</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="F12" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="B13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="B14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="B15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="B16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="B17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="B18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="B19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="B20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="B21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E21" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="B22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="E22" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="B23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E23" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="B24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E24" t="s">
-        <v>173</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="B25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="E25" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D25" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" t="s">
-        <v>176</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="B26" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E26" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="B27" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="E27" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="B28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E28" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D28" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" t="s">
-        <v>185</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="B29" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="E29" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D29" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="B30" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="B31" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" t="s">
-        <v>202</v>
-      </c>
-      <c r="E32" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" t="s">
-        <v>204</v>
-      </c>
-      <c r="E34" t="s">
-        <v>216</v>
-      </c>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" t="s">
-        <v>211</v>
-      </c>
-      <c r="D35" t="s">
-        <v>205</v>
-      </c>
-      <c r="E35" t="s">
-        <v>217</v>
-      </c>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" t="s">
-        <v>206</v>
-      </c>
-      <c r="E36" t="s">
-        <v>218</v>
-      </c>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B37" t="s">
-        <v>213</v>
-      </c>
-      <c r="D37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E37" t="s">
-        <v>219</v>
-      </c>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="5"/>
-    <col min="2" max="2" width="15.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="5"/>
+    <col min="1" max="1" width="15.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
-      <c r="B13" s="10">
-        <v>42382</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B4" location="目录!A1" display="修改记录"/>
-    <hyperlink ref="B5" location="任务内容!A1" display="任务内容"/>
-  </hyperlinks>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="24.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="12"/>
+    <col min="5" max="5" width="22.83203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cms/language/任务翻译需求.xlsx
+++ b/cms/language/任务翻译需求.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/资源提交目录/cms/language/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="560" windowWidth="28100" windowHeight="19760"/>
+    <workbookView xWindow="960" yWindow="225" windowWidth="28095" windowHeight="9930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="日常任务" sheetId="3" r:id="rId3"/>
     <sheet name="成就任务" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -628,12 +623,6 @@
     <t>mubiao10025</t>
   </si>
   <si>
-    <t>宠物强化(任一宠物为绿+1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evolve any monster to green +1 </t>
-  </si>
-  <si>
     <t>mubiao10026</t>
   </si>
   <si>
@@ -877,6 +866,36 @@
     <rPh sb="14" eb="15">
       <t>rne'wu</t>
     </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶两只宠物至绿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Evolve </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>two</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> monster to green  </t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1374,20 +1393,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
-    <col min="2" max="2" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.875" style="5"/>
+    <col min="2" max="2" width="15.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="23" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1399,17 +1418,17 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
@@ -1441,102 +1460,102 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="34" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="33" x14ac:dyDescent="0.15">
       <c r="B14" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>239</v>
-      </c>
       <c r="D14" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1557,23 +1576,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD37"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="18" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="4"/>
+    <col min="5" max="5" width="27.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1596,7 +1615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="17.100000000000001" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
@@ -2095,11 +2114,11 @@
       <c r="D26" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>179</v>
+      <c r="E26" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -2113,13 +2132,13 @@
         <v>93</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -2133,13 +2152,13 @@
         <v>96</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -2153,13 +2172,13 @@
         <v>99</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -2173,13 +2192,13 @@
         <v>102</v>
       </c>
       <c r="D30" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -2193,131 +2212,131 @@
         <v>105</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -2337,18 +2356,18 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="18" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="4"/>
+    <col min="5" max="5" width="27.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2371,242 +2390,242 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B4" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B6" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -2625,18 +2644,18 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="12"/>
-    <col min="2" max="2" width="24.1640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="12"/>
-    <col min="5" max="5" width="22.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="12"/>
+    <col min="2" max="2" width="24.125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="12"/>
+    <col min="5" max="5" width="22.875" style="12" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="12"/>
+    <col min="7" max="16384" width="10.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
